--- a/biology/Zoologie/Grammatotria/Grammatotria.xlsx
+++ b/biology/Zoologie/Grammatotria/Grammatotria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grammatotria lemairii est une espèce de poissons de la famille des Cichlidae. C'est la seule de son genre Grammatotria (monotypique).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique du lac Tanganyika en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du lac Tanganyika en Afrique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Grammatotria lemairii est de 260 mm[1]. Les femelles protègent leurs alevins dans leur bouche jusqu'à ce qui atteignent une taille d'environ 13 mm[1]. Il s'agit d'une espèce probablement carnivore se nourrissant de mollusques et de diatomées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Grammatotria lemairii est de 260 mm. Les femelles protègent leurs alevins dans leur bouche jusqu'à ce qui atteignent une taille d'environ 13 mm. Il s'agit d'une espèce probablement carnivore se nourrissant de mollusques et de diatomées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, lemairii, lui a été donné en l'honneur de Charles Lemaire (1863-1925), explorateur au Congo qui a collecté des poissons, dont cette espèce, dans le lac Tanganyika[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, lemairii, lui a été donné en l'honneur de Charles Lemaire (1863-1925), explorateur au Congo qui a collecté des poissons, dont cette espèce, dans le lac Tanganyika.
 </t>
         </is>
       </c>
